--- a/BY.X BOUTIQUE九月订单.xlsx
+++ b/BY.X BOUTIQUE九月订单.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD102E4-D32C-43A1-9ADF-B9119732DC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81170CC2-1F96-4226-99E1-FAB0C612F422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
-    <sheet name="椰奶同款背包" sheetId="6" r:id="rId2"/>
-    <sheet name="已下单" sheetId="5" r:id="rId3"/>
+    <sheet name="Lisa同款发卡" sheetId="7" r:id="rId2"/>
+    <sheet name="椰奶同款背包" sheetId="6" r:id="rId3"/>
+    <sheet name="已下单" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -136,11 +137,73 @@
         </r>
       </text>
     </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{C8D3A8D4-498C-4894-A009-7FAB59AC800F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+满减优惠 30r</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{9CDCC650-6265-4752-99BD-4C9BE8ECE1DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>milly</author>
@@ -406,11 +469,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{878BFC05-C9B5-4B91-9694-357DD10C4621}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>milly</author>
@@ -447,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -851,7 +940,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黑*6</t>
+    <t>‘1250601696854990440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓丽莎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省 南京市 浦口区 江浦街道 南京工业大学亚青 ，211800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1253562013650775953</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言胜辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省 株洲市 荷塘区 宋家桥街道 朝阳村30栋 ，412000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bling Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisa同款水果串珠橘子草莓发夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1254837170530807613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈先生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市 松江区 永丰街道 荣乐西路600弄华亭荣园26号 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1255749807936413749</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原璐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省 苏州市 苏州工业园区 苏州工业园区直属镇 独墅湖科教创新区林泉街370号文荟人才公寓 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1257215259603955937</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 东莞市 沙田镇 大泥村临海北路5号GL中通分拔中心D栋三楼【新加坡集运仓】@PYP0H8C3#WCK6JYQ4W7UHX# ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际物流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1202847937785005508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱艳玲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 宝山区 大场镇 祁连山路2500弄祁连一村47号101 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1258242051247719359</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚霁轩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省 成都市 锦江区 狮子山街道 静安路5号四川师范大学 ，610011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1256621617187599870</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black 230—37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 长宁区 新泾镇 北虹路579弄柏仕晶舍17号楼102 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(六批)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑*10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.xx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1276,6 +1493,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1294,7 +1535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,6 +1785,21 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,17 +1821,17 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2043,10 +2299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2073,10 +2329,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2201,7 +2457,9 @@
       <c r="J7" s="60"/>
       <c r="K7" s="61"/>
       <c r="L7" s="60"/>
-      <c r="M7" s="62"/>
+      <c r="M7" s="62">
+        <v>12</v>
+      </c>
       <c r="N7" s="63" t="s">
         <v>52</v>
       </c>
@@ -2255,7 +2513,9 @@
       <c r="J12" s="76"/>
       <c r="K12" s="77"/>
       <c r="L12" s="76"/>
-      <c r="M12" s="33"/>
+      <c r="M12" s="33">
+        <v>8</v>
+      </c>
       <c r="N12" s="78" t="s">
         <v>71</v>
       </c>
@@ -2320,6 +2580,52 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="95">
+        <v>9.19</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="73">
+        <v>1</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="73">
+        <v>2925</v>
+      </c>
+      <c r="G19" s="75">
+        <v>2895</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" s="78">
+        <v>13528875363</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -2373,12 +2679,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC41EC29-7B50-4520-AB7C-6D8EEB9D59F5}">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB2CED-2329-4C34-AEDA-08A19976B0D3}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="95">
+        <v>9.18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2">
+        <v>89</v>
+      </c>
+      <c r="H3" s="5">
+        <v>99</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="3">
+        <v>15000348678</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC41EC29-7B50-4520-AB7C-6D8EEB9D59F5}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2399,10 +2838,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2465,7 +2904,9 @@
         <v>178</v>
       </c>
       <c r="J3" s="12"/>
-      <c r="K3" s="46"/>
+      <c r="K3" s="46">
+        <v>8</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
@@ -2499,7 +2940,9 @@
         <v>178</v>
       </c>
       <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="K4" s="44">
+        <v>8</v>
+      </c>
       <c r="L4" s="41" t="s">
         <v>47</v>
       </c>
@@ -2533,7 +2976,9 @@
         <v>178</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="46"/>
+      <c r="K5" s="46">
+        <v>8</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>56</v>
       </c>
@@ -2571,7 +3016,7 @@
       </c>
       <c r="K6" s="68">
         <f>SUM(K3:K5)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2595,7 +3040,9 @@
         <v>178</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="K9" s="44">
+        <v>8</v>
+      </c>
       <c r="L9" s="41" t="s">
         <v>59</v>
       </c>
@@ -2629,7 +3076,9 @@
         <v>178</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="46"/>
+      <c r="K10" s="46">
+        <v>8</v>
+      </c>
       <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
@@ -2663,7 +3112,9 @@
         <v>178</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="44">
+        <v>8</v>
+      </c>
       <c r="L11" s="45" t="s">
         <v>80</v>
       </c>
@@ -2673,7 +3124,7 @@
       <c r="N11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="92" t="s">
+      <c r="O11" s="86" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2701,12 +3152,12 @@
       </c>
       <c r="K12" s="68">
         <f>SUM(K9:K11)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85">
+      <c r="A15" s="90">
         <v>9.11</v>
       </c>
       <c r="C15" s="41" t="s">
@@ -2740,7 +3191,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="91"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2771,8 +3222,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="91"/>
       <c r="C17" s="41" t="s">
         <v>41</v>
       </c>
@@ -2785,7 +3236,7 @@
       <c r="H17" s="41">
         <v>168</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="87">
         <f>178+23</f>
         <v>201</v>
       </c>
@@ -2804,7 +3255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49">
         <v>9.1199999999999992</v>
       </c>
@@ -2838,16 +3289,249 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="83">
+        <v>9.16</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41">
+        <v>1</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41">
+        <v>168</v>
+      </c>
+      <c r="I19" s="41">
+        <v>178</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="45">
+        <v>15951602897</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="83">
+        <v>9.17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2">
+        <v>168</v>
+      </c>
+      <c r="I20" s="2">
+        <v>178</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18975391063</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="83">
+        <v>9.18</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41">
+        <v>1</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41">
+        <v>168</v>
+      </c>
+      <c r="I21" s="41">
+        <v>178</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="45">
+        <v>15277110217</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="83">
+        <v>9.19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="2">
+        <v>168</v>
+      </c>
+      <c r="I22" s="2">
+        <v>178</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="3">
+        <v>15768278815</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41">
+        <v>1</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41">
+        <v>168</v>
+      </c>
+      <c r="I23" s="41">
+        <v>178</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="45">
+        <v>13916246986</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="91"/>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="2">
+        <v>168</v>
+      </c>
+      <c r="I24" s="2">
+        <v>178</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15181296229</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="68">
+        <f>SUM(D15:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="68">
+        <f>SUM(E15:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="68">
+        <f>SUM(F15:F24)</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68">
+        <f>SUM(I15:I24)</f>
+        <v>1803</v>
+      </c>
+      <c r="K25" s="68">
+        <f>SUM(K15:K24)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" location="已下单!A4" display="已预定(四批)" xr:uid="{763244DE-E77E-4FC8-8AF9-6AC353D02E4C}"/>
     <hyperlink ref="C12" location="已下单!A5" display="已预定(五批)" xr:uid="{5C3480A1-1116-460C-AE66-45088A9938C9}"/>
+    <hyperlink ref="C25" location="已下单!A8" display="(六批)" xr:uid="{9959A2E1-71F9-411B-88D9-B365AA0C8123}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2855,7 +3539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W15"/>
@@ -3016,18 +3700,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="57"/>
-      <c r="G3" s="90">
+      <c r="G3" s="84">
         <v>2895</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="59">
         <v>2714</v>
       </c>
-      <c r="J3" s="91">
-        <v>50</v>
-      </c>
-      <c r="K3" s="91">
-        <v>8</v>
+      <c r="J3" s="96">
+        <v>277</v>
+      </c>
+      <c r="K3" s="62">
+        <v>12</v>
       </c>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
@@ -3066,10 +3750,8 @@
       <c r="I4" s="70">
         <v>353</v>
       </c>
-      <c r="J4" s="24">
-        <v>100</v>
-      </c>
-      <c r="K4" s="24">
+      <c r="J4" s="97"/>
+      <c r="K4" s="33">
         <v>24</v>
       </c>
       <c r="L4" s="12"/>
@@ -3109,10 +3791,8 @@
       <c r="I5" s="59">
         <v>350</v>
       </c>
-      <c r="J5" s="91">
-        <v>100</v>
-      </c>
-      <c r="K5" s="91">
+      <c r="J5" s="97"/>
+      <c r="K5" s="62">
         <v>24</v>
       </c>
       <c r="L5" s="43"/>
@@ -3127,7 +3807,7 @@
       <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87">
+      <c r="A6" s="92">
         <v>9.11</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3147,13 +3827,11 @@
         <v>228</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="88">
+      <c r="I6" s="93">
         <v>413</v>
       </c>
-      <c r="J6" s="24">
-        <v>30</v>
-      </c>
-      <c r="K6" s="24">
+      <c r="J6" s="98"/>
+      <c r="K6" s="33">
         <v>8</v>
       </c>
       <c r="L6" s="12"/>
@@ -3168,7 +3846,7 @@
       <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="18" t="s">
         <v>74</v>
       </c>
@@ -3186,11 +3864,11 @@
         <v>292</v>
       </c>
       <c r="H7" s="42"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="91">
+      <c r="I7" s="94"/>
+      <c r="J7" s="85">
         <v>30</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="85">
         <v>8</v>
       </c>
       <c r="L7" s="43"/>
@@ -3205,8 +3883,8 @@
       <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82">
-        <v>9.16</v>
+      <c r="A8" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>100</v>
@@ -3215,15 +3893,17 @@
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
         <v>19000</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>1803</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="70"/>
       <c r="J8" s="24"/>
@@ -3262,11 +3942,11 @@
       </c>
       <c r="I12" s="16">
         <f>SUM(I2:K7)</f>
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="L12" s="16">
         <f>G12-I12</f>
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3276,9 +3956,10 @@
       <c r="B15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J3:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/BY.X BOUTIQUE九月订单.xlsx
+++ b/BY.X BOUTIQUE九月订单.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81170CC2-1F96-4226-99E1-FAB0C612F422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB6507-BDBD-4D78-9113-C3D6EBEA56F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
-    <sheet name="Lisa同款发卡" sheetId="7" r:id="rId2"/>
-    <sheet name="椰奶同款背包" sheetId="6" r:id="rId3"/>
+    <sheet name="椰奶同款背包" sheetId="6" r:id="rId2"/>
+    <sheet name="Rosé|Lisa同款" sheetId="7" r:id="rId3"/>
     <sheet name="已下单" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{C8D3A8D4-498C-4894-A009-7FAB59AC800F}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{C8D3A8D4-498C-4894-A009-7FAB59AC800F}">
       <text>
         <r>
           <rPr>
@@ -168,42 +168,6 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>milly</author>
-  </authors>
-  <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{9CDCC650-6265-4752-99BD-4C9BE8ECE1DE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>milly</author>
@@ -469,7 +433,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{878BFC05-C9B5-4B91-9694-357DD10C4621}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{F4BF6734-7B85-4103-BAEC-ACF16B2FED89}">
       <text>
         <r>
           <rPr>
@@ -491,7 +465,142 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-运费10</t>
+1.运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{5F074714-FA81-45AC-9B5A-AA1D9DFE9547}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.新品优惠5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{E9F729B4-9E28-4049-81B4-A20AB9E52FB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.新品优惠5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{1097BBB5-B895-4C69-8B44-B82F764B119C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.新品优惠5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{28945D4F-ECE4-4042-8952-DC81D7FC6790}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.新品优惠5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{D0B1ACAE-7312-4C40-90BE-5234A6473266}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.新品优惠5</t>
         </r>
       </text>
     </comment>
@@ -531,12 +640,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{AD32A44D-89D2-427B-966F-75595EF55826}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+包括赖嘉欣的包裹</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -968,10 +1103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>草莓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Bling Star</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1060,15 +1191,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(六批)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑*10</t>
+    <t>象牙白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涵涵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省 烟台市 芝罘区 幸福街道 华信家园89号楼2单元1102 ，264001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1262691865221200257</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1264780045598533561</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妻夫木聪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 静安区 彭浦新村街道 共和新路4470弄10号601 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色透明蝴蝶珍珠链条项链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohcookieee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链+明信片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1204078813180228703</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省 杭州市 滨江区 西兴街道 杨帆路绿地旭辉城6幢2单元快递柜 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑*12 象牙白*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已预定 橘子*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlingStar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已预定(六批)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mishimai</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9.xx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳钉*1 戒指*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳钉*1 戒指*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1265613624884033459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐昊然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省 杭州市 萧山区 北干街道 建设四路龙湖春江天玺2期9-2203 ，311200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴彩英Rosé同款 BlingStar发夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明*4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1271435763741642049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐嘉琪</t>
+  </si>
+  <si>
+    <t>河南省 新乡市 红旗区 洪门镇 新乡医学院三全学院 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1271760193704443064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘盈</t>
+  </si>
+  <si>
+    <t>安徽省 淮北市 烈山区 烈山镇 沱河东路8号淮北师范大学滨湖校区 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色爱心蝴蝶串珠项链BP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1275924997765804291</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘珂纯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省 济南市 市中区 六里山街道 二环南路蓝天绿园小区自提柜 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1211275049663572183</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思竹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林省 白山市 浑江区 江北街道 长白山大街怡园超市 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1276326326098352997</t>
+  </si>
+  <si>
+    <t>唐明容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 普陀区 长风新村街道 中山北路3663号华东师范大学中北校区18舍 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1275401808657022177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹衍泽</t>
+  </si>
+  <si>
+    <t>湖北省 武汉市 洪山区 珞南街道 文秀街 武汉理工大升升公寓K栋105 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1275437016490802046</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1275437016490802046</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆思婕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 北京市 海淀区 八里庄街道 西三环北路105号首都师范大学本部（送进校内\n） ，000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1424,7 @@
     <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="181" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1539,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1242,7 +1623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1517,6 +1898,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1535,7 +1973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,9 +2220,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,6 +2235,90 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,6 +2329,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1821,9 +2346,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,6 +2353,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,8 +2529,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D03E5E35-1B9B-422E-A209-9765CDAACE75}" name="表1_342" displayName="表1_342" ref="T1:W11" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="汇总">
-  <autoFilter ref="T1:W11" xr:uid="{DF1DE943-465E-410D-A547-F30732CA8F6E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D03E5E35-1B9B-422E-A209-9765CDAACE75}" name="表1_342" displayName="表1_342" ref="T1:W15" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="汇总">
+  <autoFilter ref="T1:W15" xr:uid="{DF1DE943-465E-410D-A547-F30732CA8F6E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{017421B1-E18A-4F57-8703-05CFAF228588}" name="日期" dataDxfId="3" dataCellStyle="超链接"/>
     <tableColumn id="2" xr3:uid="{5FA4A4CE-809E-4EAC-BFF8-140A1D3522F2}" name="来源" dataDxfId="2" dataCellStyle="超链接"/>
@@ -2299,10 +2839,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2329,10 +2870,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2580,58 +3121,112 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56">
+        <v>2</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56">
+        <v>597</v>
+      </c>
+      <c r="G18" s="58">
+        <v>597</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88">
         <v>9.19</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B22" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C22" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="73">
+        <v>1</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="73">
+        <v>2925</v>
+      </c>
+      <c r="G22" s="75">
+        <v>2895</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="73">
-        <v>1</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="73">
-        <v>2925</v>
-      </c>
-      <c r="G19" s="75">
-        <v>2895</v>
-      </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="78" t="s">
+      <c r="O22" s="78">
+        <v>13528875363</v>
+      </c>
+      <c r="P22" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="78">
-        <v>13528875363</v>
-      </c>
-      <c r="P19" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="Q22" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2643,8 +3238,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C15">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2655,7 +3250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2668,9 +3263,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" location="已下单!A2" display="已下单" xr:uid="{86BA9320-1C42-4E60-90E5-784367321FD2}"/>
-    <hyperlink ref="C8" location="已下单!A3" display="已下单" xr:uid="{D2EDE04F-0427-4B11-A8A9-A381F48F5244}"/>
+    <hyperlink ref="C4" location="已下单!B2" display="已下单" xr:uid="{86BA9320-1C42-4E60-90E5-784367321FD2}"/>
+    <hyperlink ref="C8" location="已下单!B3" display="已下单" xr:uid="{D2EDE04F-0427-4B11-A8A9-A381F48F5244}"/>
     <hyperlink ref="C15" location="已下单!A6" display="已下单" xr:uid="{D9376630-1804-47B9-B2D5-0AD7DD4083BC}"/>
+    <hyperlink ref="C19" location="已下单!B10" display="已下单" xr:uid="{AE364A2A-1660-40D4-A607-069A95136A9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2679,145 +3275,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB2CED-2329-4C34-AEDA-08A19976B0D3}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC41EC29-7B50-4520-AB7C-6D8EEB9D59F5}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="74.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95">
-        <v>9.18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="2">
-        <v>89</v>
-      </c>
-      <c r="H3" s="5">
-        <v>99</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="3">
-        <v>15000348678</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC41EC29-7B50-4520-AB7C-6D8EEB9D59F5}">
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2838,10 +3301,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3124,7 +3587,7 @@
       <c r="N11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="85" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3157,7 +3620,7 @@
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90">
+      <c r="A15" s="117">
         <v>9.11</v>
       </c>
       <c r="C15" s="41" t="s">
@@ -3191,7 +3654,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="118"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
@@ -3223,7 +3686,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="A17" s="118"/>
       <c r="C17" s="41" t="s">
         <v>41</v>
       </c>
@@ -3236,7 +3699,7 @@
       <c r="H17" s="41">
         <v>168</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="86">
         <f>178+23</f>
         <v>201</v>
       </c>
@@ -3290,41 +3753,39 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83">
+      <c r="A19" s="97">
         <v>9.16</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="41">
-        <v>1</v>
-      </c>
+      <c r="F19" s="41"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="41">
-        <v>168</v>
-      </c>
-      <c r="I19" s="41">
-        <v>178</v>
-      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="43"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="96">
         <v>15951602897</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="86" t="s">
+      <c r="O19" s="85" t="s">
         <v>101</v>
       </c>
+      <c r="P19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83">
+      <c r="A20" s="82">
         <v>9.17</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3358,7 +3819,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83">
+      <c r="A21" s="82">
         <v>9.18</v>
       </c>
       <c r="C21" s="41" t="s">
@@ -3379,20 +3840,20 @@
       <c r="J21" s="43"/>
       <c r="K21" s="44"/>
       <c r="L21" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M21" s="45">
         <v>15277110217</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O21" s="86" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="O21" s="85" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83">
+      <c r="A22" s="82">
         <v>9.19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3413,23 +3874,23 @@
       <c r="J22" s="12"/>
       <c r="K22" s="46"/>
       <c r="L22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="3">
         <v>15768278815</v>
       </c>
       <c r="N22" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90">
+      <c r="A23" s="117">
         <v>9.1999999999999993</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -3450,20 +3911,20 @@
       <c r="J23" s="43"/>
       <c r="K23" s="44"/>
       <c r="L23" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M23" s="45">
         <v>13916246986</v>
       </c>
       <c r="N23" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="86" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="O23" s="85" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
+      <c r="A24" s="118"/>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
@@ -3482,45 +3943,251 @@
       <c r="J24" s="12"/>
       <c r="K24" s="46"/>
       <c r="L24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M24" s="3">
         <v>15181296229</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="87">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="41">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41">
+        <v>168</v>
+      </c>
+      <c r="I25" s="41">
+        <v>178</v>
+      </c>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="68">
-        <f>SUM(D15:D24)</f>
+      <c r="M25" s="45">
+        <v>13964441985</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="89">
+        <v>9.23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="2">
+        <v>168</v>
+      </c>
+      <c r="I26" s="2">
+        <v>178</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="3">
+        <v>17551045152</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="94">
+        <v>9.24</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41">
+        <v>168</v>
+      </c>
+      <c r="I27" s="41">
+        <v>178</v>
+      </c>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="M27" s="45">
+        <v>13735299930</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" s="85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="98">
+        <v>9.27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="2">
+        <v>168</v>
+      </c>
+      <c r="I28" s="2">
+        <v>178</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="3">
+        <v>15120893077</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="68">
+        <f>SUM(D15:D28)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="68">
+        <f>SUM(E15:E27)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="68">
-        <f>SUM(E15:E24)</f>
+      <c r="F29" s="68">
+        <f>SUM(F15:F28)</f>
+        <v>12</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68">
+        <f>SUM(I15:I28)</f>
+        <v>2337</v>
+      </c>
+      <c r="K29" s="68">
+        <f>SUM(K15:K28)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="68">
-        <f>SUM(F15:F24)</f>
-        <v>10</v>
-      </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68">
-        <f>SUM(I15:I24)</f>
-        <v>1803</v>
-      </c>
-      <c r="K25" s="68">
-        <f>SUM(K15:K24)</f>
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="31" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="99">
+        <v>9.27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="2">
+        <v>168</v>
+      </c>
+      <c r="I32" s="2">
+        <v>178</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="3">
+        <v>19156129252</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="113">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41">
+        <v>168</v>
+      </c>
+      <c r="I33" s="41">
+        <v>168</v>
+      </c>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="129" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="45">
+        <v>13126602022</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="O33" s="85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -3529,9 +4196,416 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" location="已下单!A4" display="已预定(四批)" xr:uid="{763244DE-E77E-4FC8-8AF9-6AC353D02E4C}"/>
-    <hyperlink ref="C12" location="已下单!A5" display="已预定(五批)" xr:uid="{5C3480A1-1116-460C-AE66-45088A9938C9}"/>
-    <hyperlink ref="C25" location="已下单!A8" display="(六批)" xr:uid="{9959A2E1-71F9-411B-88D9-B365AA0C8123}"/>
+    <hyperlink ref="C6" location="已下单!B4" display="已预定(四批)" xr:uid="{763244DE-E77E-4FC8-8AF9-6AC353D02E4C}"/>
+    <hyperlink ref="C12" location="已下单!B5" display="已预定(五批)" xr:uid="{5C3480A1-1116-460C-AE66-45088A9938C9}"/>
+    <hyperlink ref="C29" location="已下单!B8" display="(六批)" xr:uid="{9959A2E1-71F9-411B-88D9-B365AA0C8123}"/>
+    <hyperlink ref="L33" location="'Rosé|Lisa同款'!N14" display="陆思婕" xr:uid="{787691BB-ADAD-4E7B-B40E-3A0B1C5915D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB2CED-2329-4C34-AEDA-08A19976B0D3}">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88">
+        <v>9.18</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="110">
+        <v>15000348678</v>
+      </c>
+      <c r="P3" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90">
+        <v>9.24</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
+        <v>138</v>
+      </c>
+      <c r="G7" s="86">
+        <v>148</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="56">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="63">
+        <v>18158401433</v>
+      </c>
+      <c r="P7" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="130">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="B10" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2">
+        <v>119</v>
+      </c>
+      <c r="G10" s="2">
+        <f>F10+10-5</f>
+        <v>124</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="3">
+        <v>15053157908</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q10" s="66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="132"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41">
+        <v>119</v>
+      </c>
+      <c r="G11" s="41">
+        <f>F11+10-5</f>
+        <v>124</v>
+      </c>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="45">
+        <v>15804399137</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="130">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2">
+        <f>F12+10-5</f>
+        <v>124</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="3">
+        <v>15928525882</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="131"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41">
+        <v>125</v>
+      </c>
+      <c r="G13" s="41">
+        <f>F13+10-5</f>
+        <v>130</v>
+      </c>
+      <c r="H13" s="86"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="56">
+        <v>0</v>
+      </c>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="63">
+        <v>18071123749</v>
+      </c>
+      <c r="P13" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="132"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2">
+        <v>119</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14+10-5</f>
+        <v>124</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="3">
+        <v>13126602022</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B10:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B4" location="已下单!B9" display="已预定 橘子*1" xr:uid="{1EC33B94-20EA-4FEC-9DCF-ECEBE4D9DA0A}"/>
+    <hyperlink ref="N14" location="椰奶同款背包!L33" display="陆思婕" xr:uid="{21D6B6D3-1DB9-439D-A2EB-9FCB70DC723E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3542,10 +4616,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3700,14 +4774,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="57"/>
-      <c r="G3" s="84">
+      <c r="G3" s="83">
         <v>2895</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="59">
         <v>2714</v>
       </c>
-      <c r="J3" s="96">
+      <c r="J3" s="124">
         <v>277</v>
       </c>
       <c r="K3" s="62">
@@ -3750,7 +4824,7 @@
       <c r="I4" s="70">
         <v>353</v>
       </c>
-      <c r="J4" s="97"/>
+      <c r="J4" s="125"/>
       <c r="K4" s="33">
         <v>24</v>
       </c>
@@ -3791,7 +4865,7 @@
       <c r="I5" s="59">
         <v>350</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="125"/>
       <c r="K5" s="62">
         <v>24</v>
       </c>
@@ -3807,7 +4881,7 @@
       <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92">
+      <c r="A6" s="121">
         <v>9.11</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3827,10 +4901,10 @@
         <v>228</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="93">
+      <c r="I6" s="122">
         <v>413</v>
       </c>
-      <c r="J6" s="98"/>
+      <c r="J6" s="126"/>
       <c r="K6" s="33">
         <v>8</v>
       </c>
@@ -3846,11 +4920,11 @@
       <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="102" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -3864,11 +4938,11 @@
         <v>292</v>
       </c>
       <c r="H7" s="42"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="85">
-        <v>30</v>
-      </c>
-      <c r="K7" s="85">
+      <c r="I7" s="123"/>
+      <c r="J7" s="124">
+        <v>354</v>
+      </c>
+      <c r="K7" s="84">
         <v>8</v>
       </c>
       <c r="L7" s="43"/>
@@ -3883,83 +4957,167 @@
       <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>133</v>
+      <c r="A8" s="121">
+        <v>9.24</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="100" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7">
         <v>19000</v>
       </c>
       <c r="G8" s="2">
-        <v>1803</v>
+        <v>2337</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="122">
+        <v>2238</v>
+      </c>
+      <c r="J8" s="125"/>
+      <c r="K8" s="24">
+        <v>104</v>
+      </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:23" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="8" t="s">
+    <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="121"/>
+      <c r="B9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="41">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="84">
+        <v>8</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="121"/>
+      <c r="B10" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2">
+        <v>597</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="24">
+        <v>8</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41">
+        <v>39</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="84">
+        <v>8</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:23" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="35"/>
-    </row>
-    <row r="12" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="16">
-        <f>SUM(E2:E7)</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="16">
-        <f>SUM(G2:G7)</f>
-        <v>4903</v>
-      </c>
-      <c r="I12" s="16">
-        <f>SUM(I2:K7)</f>
-        <v>4563</v>
-      </c>
-      <c r="L12" s="16">
-        <f>G12-I12</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="35"/>
+    </row>
+    <row r="16" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="16">
+        <f>SUM(E2:E10)</f>
+        <v>26</v>
+      </c>
+      <c r="G16" s="16">
+        <f>SUM(G2:G12)</f>
+        <v>7876</v>
+      </c>
+      <c r="I16" s="16">
+        <f>SUM(I2:K12)</f>
+        <v>7253</v>
+      </c>
+      <c r="L16" s="16">
+        <f>G16-I16</f>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J3:J6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3970,13 +5128,16 @@
     <hyperlink ref="B6" location="订单!A11" display="BAON" xr:uid="{18BE4ABA-D1F5-4AA1-9FBC-01C07DB47D1D}"/>
     <hyperlink ref="B7" location="订单!A11" display="BAON" xr:uid="{9C56ECD0-F3A8-4487-A6E6-A7F5DD971CAF}"/>
     <hyperlink ref="B8" location="椰奶同款背包!A15" display="BAON(六批)" xr:uid="{5C09FDDF-9F37-4A15-9CB7-FA106BEC616B}"/>
+    <hyperlink ref="B9" location="'Rosé|Lisa同款'!A2" display="BlingStar" xr:uid="{F285928E-48CC-4B3C-A6A3-B047DCCC780B}"/>
+    <hyperlink ref="B10" location="订单!A17" display="mishimai" xr:uid="{774358AD-BD2B-4286-A48E-59FED68D7370}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{10E6A939-584C-42C9-9A58-2C0830C3E254}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BY.X BOUTIQUE九月订单.xlsx
+++ b/BY.X BOUTIQUE九月订单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB6507-BDBD-4D78-9113-C3D6EBEA56F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5078A-A214-42D5-8239-34413C5DA3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
@@ -443,177 +443,6 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{F4BF6734-7B85-4103-BAEC-ACF16B2FED89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{5F074714-FA81-45AC-9B5A-AA1D9DFE9547}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10
-2.新品优惠5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{E9F729B4-9E28-4049-81B4-A20AB9E52FB7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10
-2.新品优惠5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{1097BBB5-B895-4C69-8B44-B82F764B119C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10
-2.新品优惠5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{28945D4F-ECE4-4042-8952-DC81D7FC6790}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10
-2.新品优惠5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{D0B1ACAE-7312-4C40-90BE-5234A6473266}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.运费10
-2.新品优惠5</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>milly</author>
-  </authors>
-  <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{FE91C1E4-7630-4466-803F-41E4A57CA0DA}">
       <text>
         <r>
@@ -671,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="166">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1219,30 +1048,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>彩色透明蝴蝶珍珠链条项链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ohcookieee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项链+明信片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>’1204078813180228703</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江省 杭州市 滨江区 西兴街道 杨帆路绿地旭辉城6幢2单元快递柜 ，000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已退款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1283,10 +1088,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>耳钉*1 戒指*1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>‘1265613624884033459</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1307,10 +1108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>透明*4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>‘1271435763741642049</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1322,56 +1119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>‘1271760193704443064</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘盈</t>
-  </si>
-  <si>
-    <t>安徽省 淮北市 烈山区 烈山镇 沱河东路8号淮北师范大学滨湖校区 ，000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色爱心蝴蝶串珠项链BP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘1275924997765804291</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘珂纯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东省 济南市 市中区 六里山街道 二环南路蓝天绿园小区自提柜 ，000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘1211275049663572183</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈思竹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉林省 白山市 浑江区 江北街道 长白山大街怡园超市 ，000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>’1276326326098352997</t>
-  </si>
-  <si>
-    <t>唐明容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海 上海市 普陀区 长风新村街道 中山北路3663号华东师范大学中北校区18舍 ，000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已退款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1380,34 +1127,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>‘1275401808657022177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尹衍泽</t>
-  </si>
-  <si>
-    <t>湖北省 武汉市 洪山区 珞南街道 文秀街 武汉理工大升升公寓K栋105 ，000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘1275437016490802046</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>’1275437016490802046</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆思婕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京 北京市 海淀区 八里庄街道 西三环北路105号首都师范大学本部（送进校内\n） ，000000</t>
+    <t>花儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 闵行区 新虹街道 申滨路1051弄 爱博二村 61号201室 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象牙白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周笑逸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市长宁区虹桥路977号3号楼2302室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1277260743926552542</t>
+  </si>
+  <si>
+    <t>透明*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1424,7 +1175,7 @@
     <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="181" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,8 +1332,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,8 +1391,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1898,63 +1673,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1973,7 +1691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2244,18 +1962,6 @@
     <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,21 +1976,6 @@
     </xf>
     <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2316,8 +2007,26 @@
     <xf numFmtId="180" fontId="4" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2331,10 +2040,10 @@
     <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2357,21 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2529,8 +2223,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D03E5E35-1B9B-422E-A209-9765CDAACE75}" name="表1_342" displayName="表1_342" ref="T1:W15" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="汇总">
-  <autoFilter ref="T1:W15" xr:uid="{DF1DE943-465E-410D-A547-F30732CA8F6E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D03E5E35-1B9B-422E-A209-9765CDAACE75}" name="表1_342" displayName="表1_342" ref="T1:W16" totalsRowShown="0" headerRowDxfId="4" headerRowCellStyle="汇总">
+  <autoFilter ref="T1:W16" xr:uid="{DF1DE943-465E-410D-A547-F30732CA8F6E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{017421B1-E18A-4F57-8703-05CFAF228588}" name="日期" dataDxfId="3" dataCellStyle="超链接"/>
     <tableColumn id="2" xr3:uid="{5FA4A4CE-809E-4EAC-BFF8-140A1D3522F2}" name="来源" dataDxfId="2" dataCellStyle="超链接"/>
@@ -2839,11 +2533,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2870,10 +2564,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3054,9 +2748,7 @@
       <c r="J12" s="76"/>
       <c r="K12" s="77"/>
       <c r="L12" s="76"/>
-      <c r="M12" s="33">
-        <v>8</v>
-      </c>
+      <c r="M12" s="33"/>
       <c r="N12" s="78" t="s">
         <v>71</v>
       </c>
@@ -3121,18 +2813,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="56">
@@ -3151,70 +2843,91 @@
       <c r="K18" s="61"/>
       <c r="L18" s="60"/>
       <c r="M18" s="62"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64"/>
+      <c r="N18" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="63">
+        <v>17721005618</v>
+      </c>
+      <c r="P18" s="64" t="s">
+        <v>161</v>
+      </c>
       <c r="Q18" s="65" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="88">
         <v>9.19</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="95">
         <v>1</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="73">
+      <c r="E22" s="96"/>
+      <c r="F22" s="95">
         <v>2925</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="111">
         <v>2895</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="78" t="s">
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="O22" s="78">
+      <c r="O22" s="101">
         <v>13528875363</v>
       </c>
-      <c r="P22" s="79" t="s">
+      <c r="P22" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="Q22" s="80" t="s">
+      <c r="Q22" s="103" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="R22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3226,20 +2939,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3251,7 +2952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3276,11 +2977,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC41EC29-7B50-4520-AB7C-6D8EEB9D59F5}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3301,10 +3002,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,7 +3321,7 @@
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117">
+      <c r="A15" s="114">
         <v>9.11</v>
       </c>
       <c r="C15" s="41" t="s">
@@ -3654,7 +3355,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
+      <c r="A16" s="115"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
@@ -3686,7 +3387,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
+      <c r="A17" s="115"/>
       <c r="C17" s="41" t="s">
         <v>41</v>
       </c>
@@ -3753,11 +3454,11 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97">
+      <c r="A19" s="93">
         <v>9.16</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="92" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="41"/>
@@ -3768,20 +3469,20 @@
       <c r="I19" s="41"/>
       <c r="J19" s="43"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="96" t="s">
+      <c r="L19" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="96">
+      <c r="M19" s="92">
         <v>15951602897</v>
       </c>
-      <c r="N19" s="96" t="s">
+      <c r="N19" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="85" t="s">
+      <c r="O19" s="92" t="s">
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3890,7 +3591,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117">
+      <c r="A23" s="114">
         <v>9.1999999999999993</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -3924,7 +3625,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
+      <c r="A24" s="115"/>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
@@ -3962,31 +3663,28 @@
       <c r="C25" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="41">
-        <v>1</v>
-      </c>
+      <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="41">
-        <v>168</v>
-      </c>
-      <c r="I25" s="41">
-        <v>178</v>
-      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="43"/>
       <c r="K25" s="44"/>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="92">
         <v>13964441985</v>
       </c>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="85" t="s">
+      <c r="O25" s="92" t="s">
         <v>133</v>
+      </c>
+      <c r="P25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4024,7 +3722,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94">
+      <c r="A27" s="90">
         <v>9.24</v>
       </c>
       <c r="C27" s="41" t="s">
@@ -4045,20 +3743,20 @@
       <c r="J27" s="43"/>
       <c r="K27" s="44"/>
       <c r="L27" s="45" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M27" s="45">
         <v>13735299930</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O27" s="85" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98">
+      <c r="A28" s="94">
         <v>9.27</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4079,115 +3777,78 @@
       <c r="J28" s="12"/>
       <c r="K28" s="46"/>
       <c r="L28" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M28" s="3">
         <v>15120893077</v>
       </c>
       <c r="N28" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="104">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="41">
+        <v>1</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41">
+        <v>168</v>
+      </c>
+      <c r="I29" s="41">
+        <v>178</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" s="45">
+        <v>18507159920</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="68">
-        <f>SUM(D15:D28)</f>
+    </row>
+    <row r="30" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="68">
+        <f>SUM(D15:D29)</f>
         <v>1</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E30" s="68">
         <f>SUM(E15:E27)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="68">
-        <f>SUM(F15:F28)</f>
+      <c r="F30" s="68">
+        <f>SUM(F15:F29)</f>
         <v>12</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68">
-        <f>SUM(I15:I28)</f>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68">
+        <f>SUM(I15:I29)</f>
         <v>2337</v>
       </c>
-      <c r="K29" s="68">
-        <f>SUM(K15:K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99">
-        <v>9.27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="2">
-        <v>168</v>
-      </c>
-      <c r="I32" s="2">
-        <v>178</v>
-      </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="3" t="s">
+      <c r="K30" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="M32" s="3">
-        <v>19156129252</v>
-      </c>
-      <c r="N32" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="O32" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="113">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41">
-        <v>1</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="41">
-        <v>168</v>
-      </c>
-      <c r="I33" s="41">
-        <v>168</v>
-      </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="M33" s="45">
-        <v>13126602022</v>
-      </c>
-      <c r="N33" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="O33" s="85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -4198,8 +3859,7 @@
   <hyperlinks>
     <hyperlink ref="C6" location="已下单!B4" display="已预定(四批)" xr:uid="{763244DE-E77E-4FC8-8AF9-6AC353D02E4C}"/>
     <hyperlink ref="C12" location="已下单!B5" display="已预定(五批)" xr:uid="{5C3480A1-1116-460C-AE66-45088A9938C9}"/>
-    <hyperlink ref="C29" location="已下单!B8" display="(六批)" xr:uid="{9959A2E1-71F9-411B-88D9-B365AA0C8123}"/>
-    <hyperlink ref="L33" location="'Rosé|Lisa同款'!N14" display="陆思婕" xr:uid="{787691BB-ADAD-4E7B-B40E-3A0B1C5915D8}"/>
+    <hyperlink ref="C30" location="已下单!B8" display="(六批)" xr:uid="{9959A2E1-71F9-411B-88D9-B365AA0C8123}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4208,11 +3868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB2CED-2329-4C34-AEDA-08A19976B0D3}">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB2CED-2329-4C34-AEDA-08A19976B0D3}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4232,10 +3892,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4289,41 +3949,41 @@
       <c r="A3" s="88">
         <v>9.18</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="110">
+      <c r="O3" s="101">
         <v>15000348678</v>
       </c>
-      <c r="P3" s="111" t="s">
+      <c r="P3" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="112" t="s">
+      <c r="Q3" s="103" t="s">
         <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4">
         <f>SUM(D3)</f>
@@ -4342,257 +4002,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90">
-        <v>9.24</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
-        <v>138</v>
-      </c>
-      <c r="G7" s="86">
-        <v>148</v>
-      </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="56">
-        <v>0</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="63">
-        <v>18158401433</v>
-      </c>
-      <c r="P7" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="93" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="B10" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2">
-        <v>119</v>
-      </c>
-      <c r="G10" s="2">
-        <f>F10+10-5</f>
-        <v>124</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="3">
-        <v>15053157908</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q10" s="66" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="132"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="41">
-        <v>119</v>
-      </c>
-      <c r="G11" s="41">
-        <f>F11+10-5</f>
-        <v>124</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="O11" s="45">
-        <v>15804399137</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2">
-        <v>119</v>
-      </c>
-      <c r="G12" s="2">
-        <f>F12+10-5</f>
-        <v>124</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O12" s="3">
-        <v>15928525882</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12" s="66" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="41">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41">
-        <v>125</v>
-      </c>
-      <c r="G13" s="41">
-        <f>F13+10-5</f>
-        <v>130</v>
-      </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="56">
-        <v>0</v>
-      </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="O13" s="63">
-        <v>18071123749</v>
-      </c>
-      <c r="P13" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2">
-        <v>119</v>
-      </c>
-      <c r="G14" s="2">
-        <f>F14+10-5</f>
-        <v>124</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="128" t="s">
-        <v>184</v>
-      </c>
-      <c r="O14" s="3">
-        <v>13126602022</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="66" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4605,21 +4021,19 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B4" location="已下单!B9" display="已预定 橘子*1" xr:uid="{1EC33B94-20EA-4FEC-9DCF-ECEBE4D9DA0A}"/>
-    <hyperlink ref="N14" location="椰奶同款背包!L33" display="陆思婕" xr:uid="{21D6B6D3-1DB9-439D-A2EB-9FCB70DC723E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4708,7 +4122,7 @@
     </row>
     <row r="2" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
-        <v>8.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>31</v>
@@ -4781,7 +4195,7 @@
       <c r="I3" s="59">
         <v>2714</v>
       </c>
-      <c r="J3" s="124">
+      <c r="J3" s="121">
         <v>277</v>
       </c>
       <c r="K3" s="62">
@@ -4824,7 +4238,7 @@
       <c r="I4" s="70">
         <v>353</v>
       </c>
-      <c r="J4" s="125"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="33">
         <v>24</v>
       </c>
@@ -4865,7 +4279,7 @@
       <c r="I5" s="59">
         <v>350</v>
       </c>
-      <c r="J5" s="125"/>
+      <c r="J5" s="122"/>
       <c r="K5" s="62">
         <v>24</v>
       </c>
@@ -4881,7 +4295,7 @@
       <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121">
+      <c r="A6" s="118">
         <v>9.11</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -4901,10 +4315,10 @@
         <v>228</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="122">
+      <c r="I6" s="119">
         <v>413</v>
       </c>
-      <c r="J6" s="126"/>
+      <c r="J6" s="123"/>
       <c r="K6" s="33">
         <v>8</v>
       </c>
@@ -4920,11 +4334,11 @@
       <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="54" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -4938,12 +4352,12 @@
         <v>292</v>
       </c>
       <c r="H7" s="42"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124">
+      <c r="I7" s="120"/>
+      <c r="J7" s="121">
         <v>354</v>
       </c>
-      <c r="K7" s="84">
-        <v>8</v>
+      <c r="K7" s="116">
+        <v>112</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -4957,17 +4371,17 @@
       <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121">
+      <c r="A8" s="118">
         <v>9.24</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="69" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
@@ -4979,50 +4393,44 @@
         <v>2337</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="122">
+      <c r="I8" s="119">
         <v>2238</v>
       </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="24">
-        <v>104</v>
-      </c>
+      <c r="J8" s="122"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="101" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1</v>
-      </c>
+      <c r="D9" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="107"/>
       <c r="F9" s="42"/>
       <c r="G9" s="41"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="84">
-        <v>8</v>
-      </c>
+      <c r="I9" s="124"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="84"/>
       <c r="L9" s="43" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -5033,85 +4441,83 @@
         <v>597</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="24">
-        <v>8</v>
-      </c>
+      <c r="I10" s="120"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="105"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="41">
-        <v>39</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="84">
-        <v>8</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-    </row>
-    <row r="13" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="8" t="s">
+    <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41">
+        <v>68</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:23" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:23" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="34"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="35"/>
-    </row>
-    <row r="16" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="16">
+      <c r="T16" s="34"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="35"/>
+    </row>
+    <row r="17" spans="3:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="16">
         <f>SUM(E2:E10)</f>
-        <v>26</v>
-      </c>
-      <c r="G16" s="16">
-        <f>SUM(G2:G12)</f>
-        <v>7876</v>
-      </c>
-      <c r="I16" s="16">
-        <f>SUM(I2:K12)</f>
-        <v>7253</v>
-      </c>
-      <c r="L16" s="16">
-        <f>G16-I16</f>
-        <v>623</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G17" s="16">
+        <f>SUM(G2:G13)</f>
+        <v>7905</v>
+      </c>
+      <c r="I17" s="16">
+        <f>SUM(I2:K13)</f>
+        <v>7229</v>
+      </c>
+      <c r="L17" s="16">
+        <f>G17-I17</f>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J3:J6"/>
@@ -5130,7 +4536,7 @@
     <hyperlink ref="B8" location="椰奶同款背包!A15" display="BAON(六批)" xr:uid="{5C09FDDF-9F37-4A15-9CB7-FA106BEC616B}"/>
     <hyperlink ref="B9" location="'Rosé|Lisa同款'!A2" display="BlingStar" xr:uid="{F285928E-48CC-4B3C-A6A3-B047DCCC780B}"/>
     <hyperlink ref="B10" location="订单!A17" display="mishimai" xr:uid="{774358AD-BD2B-4286-A48E-59FED68D7370}"/>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{10E6A939-584C-42C9-9A58-2C0830C3E254}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{10E6A939-584C-42C9-9A58-2C0830C3E254}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/BY.X BOUTIQUE九月订单.xlsx
+++ b/BY.X BOUTIQUE九月订单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5078A-A214-42D5-8239-34413C5DA3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BACB35-76F8-4036-BB84-6CE285458E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1160,6 +1160,9 @@
   <si>
     <t>已退款</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY.X BOUTIQUE 月统计.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2026,6 +2029,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2564,10 +2570,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +2986,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3002,10 +3008,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3321,7 +3327,7 @@
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="114">
+      <c r="A15" s="115">
         <v>9.11</v>
       </c>
       <c r="C15" s="41" t="s">
@@ -3355,7 +3361,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
+      <c r="A16" s="116"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
@@ -3387,7 +3393,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
+      <c r="A17" s="116"/>
       <c r="C17" s="41" t="s">
         <v>41</v>
       </c>
@@ -3591,7 +3597,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="114">
+      <c r="A23" s="115">
         <v>9.1999999999999993</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -3625,7 +3631,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="116"/>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
@@ -3871,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB2CED-2329-4C34-AEDA-08A19976B0D3}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3892,10 +3898,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4030,10 +4036,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4195,7 +4201,7 @@
       <c r="I3" s="59">
         <v>2714</v>
       </c>
-      <c r="J3" s="121">
+      <c r="J3" s="122">
         <v>277</v>
       </c>
       <c r="K3" s="62">
@@ -4238,7 +4244,7 @@
       <c r="I4" s="70">
         <v>353</v>
       </c>
-      <c r="J4" s="122"/>
+      <c r="J4" s="123"/>
       <c r="K4" s="33">
         <v>24</v>
       </c>
@@ -4279,7 +4285,7 @@
       <c r="I5" s="59">
         <v>350</v>
       </c>
-      <c r="J5" s="122"/>
+      <c r="J5" s="123"/>
       <c r="K5" s="62">
         <v>24</v>
       </c>
@@ -4295,7 +4301,7 @@
       <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118">
+      <c r="A6" s="119">
         <v>9.11</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -4315,10 +4321,10 @@
         <v>228</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="119">
+      <c r="I6" s="120">
         <v>413</v>
       </c>
-      <c r="J6" s="123"/>
+      <c r="J6" s="124"/>
       <c r="K6" s="33">
         <v>8</v>
       </c>
@@ -4334,7 +4340,7 @@
       <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="18" t="s">
         <v>74</v>
       </c>
@@ -4352,11 +4358,11 @@
         <v>292</v>
       </c>
       <c r="H7" s="42"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="121">
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <v>354</v>
       </c>
-      <c r="K7" s="116">
+      <c r="K7" s="117">
         <v>112</v>
       </c>
       <c r="L7" s="43"/>
@@ -4371,7 +4377,7 @@
       <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="118">
+      <c r="A8" s="119">
         <v>9.24</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4393,16 +4399,16 @@
         <v>2337</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="119">
+      <c r="I8" s="120">
         <v>2238</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="117"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="118"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="108" t="s">
         <v>140</v>
       </c>
@@ -4416,8 +4422,8 @@
       <c r="F9" s="42"/>
       <c r="G9" s="41"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="122"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="123"/>
       <c r="K9" s="84"/>
       <c r="L9" s="43" t="s">
         <v>156</v>
@@ -4425,7 +4431,7 @@
       <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="18" t="s">
         <v>143</v>
       </c>
@@ -4441,8 +4447,8 @@
         <v>597</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="123"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="124"/>
       <c r="K10" s="105"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -4494,7 +4500,7 @@
       <c r="V16" s="39"/>
       <c r="W16" s="35"/>
     </row>
-    <row r="17" spans="3:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="16">
         <f>SUM(E2:E10)</f>
         <v>25</v>
@@ -4512,8 +4518,13 @@
         <v>676</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="112" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4537,13 +4548,14 @@
     <hyperlink ref="B9" location="'Rosé|Lisa同款'!A2" display="BlingStar" xr:uid="{F285928E-48CC-4B3C-A6A3-B047DCCC780B}"/>
     <hyperlink ref="B10" location="订单!A17" display="mishimai" xr:uid="{774358AD-BD2B-4286-A48E-59FED68D7370}"/>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{10E6A939-584C-42C9-9A58-2C0830C3E254}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{203FFC09-1F33-4C24-A3F4-7795CE319545}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
